--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_20-02.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_20-02.xlsx
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
   </si>
   <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
@@ -2121,17 +2124,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2139,7 +2142,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2147,17 +2150,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2173,17 +2176,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>136.16</v>
+        <v>20</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2199,17 +2202,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>82</v>
+        <v>136.16</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2225,13 +2228,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2243,7 +2246,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2251,17 +2254,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2277,17 +2280,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2303,13 +2306,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2329,17 +2332,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2355,17 +2358,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2373,7 +2376,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2381,17 +2384,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>30.07</v>
+        <v>75</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2399,7 +2402,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2407,17 +2410,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>18</v>
+        <v>30.07</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2433,17 +2436,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2451,7 +2454,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2459,17 +2462,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2477,7 +2480,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2485,17 +2488,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2511,17 +2514,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2537,17 +2540,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2563,13 +2566,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2589,17 +2592,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2607,7 +2610,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2615,17 +2618,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>55.600000000000001</v>
+        <v>12</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2633,7 +2636,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2641,17 +2644,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>70</v>
+        <v>55.600000000000001</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2667,17 +2670,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2685,7 +2688,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2693,13 +2696,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2711,7 +2714,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2719,13 +2722,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>69.299999999999997</v>
+        <v>15</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2751,7 +2754,7 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>44.549999999999997</v>
+        <v>69.299999999999997</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2771,13 +2774,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>35</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2797,51 +2800,77 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="77" ht="26.25" customHeight="1">
-      <c r="K77" s="10">
-        <v>5499.7399999999998</v>
-      </c>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="11">
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="6">
+        <v>74</v>
+      </c>
+      <c t="s" r="B77" s="7">
         <v>108</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c t="s" r="F78" s="12">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c t="s" r="H77" s="8">
+        <v>83</v>
+      </c>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="9">
+        <v>30</v>
+      </c>
+      <c r="M77" s="9"/>
+      <c t="s" r="N77" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" ht="25.5" customHeight="1">
+      <c r="K78" s="10">
+        <v>5584.7399999999998</v>
+      </c>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+    </row>
+    <row r="79" ht="17.25" customHeight="1">
+      <c t="s" r="A79" s="11">
         <v>109</v>
       </c>
-      <c r="G78" s="12"/>
-      <c r="H78" s="13"/>
-      <c t="s" r="I78" s="14">
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c t="s" r="F79" s="12">
         <v>110</v>
       </c>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="13"/>
+      <c t="s" r="I79" s="14">
+        <v>111</v>
+      </c>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="230">
+  <mergeCells count="233">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3068,10 +3097,13 @@
     <mergeCell ref="B76:G76"/>
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="I78:N78"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="I79:N79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
